--- a/src/banco-de-dados/Pokémon - Banco De Dados.xlsx
+++ b/src/banco-de-dados/Pokémon - Banco De Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9879E3B-5E1A-4498-90A5-22F7F3B895C0}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{601FC086-7753-4A5E-A6BD-1904E537A9D8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>ID_Pokemon</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Altura</t>
+  </si>
+  <si>
+    <t>Vida</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
+    <t>Defesa</t>
   </si>
   <si>
     <t>Bulbasaur</t>
@@ -190,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +218,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,10 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,9 +609,10 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -629,313 +628,457 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5">
+        <v>63</v>
+      </c>
+      <c r="H3" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>58</v>
+      </c>
+      <c r="G7" s="5">
+        <v>64</v>
+      </c>
+      <c r="H7" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5">
+        <v>130</v>
+      </c>
+      <c r="H9" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5">
+        <v>104</v>
+      </c>
+      <c r="H10" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5">
+        <v>59</v>
+      </c>
+      <c r="G12" s="5">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5">
+        <v>83</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5">
+        <v>103</v>
+      </c>
+      <c r="H14" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
+        <v>45</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5">
+        <v>60</v>
+      </c>
+      <c r="G17" s="5">
+        <v>90</v>
+      </c>
+      <c r="H17" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>60</v>
+      </c>
+      <c r="G18" s="5">
+        <v>85</v>
+      </c>
+      <c r="H18" s="5">
         <v>50</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
